--- a/spliced/falling/2023-03-25_17-59-45/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-59-45/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,211 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-3.195896685123444</v>
+        <v>-2.669419974088668</v>
       </c>
       <c r="B2" t="n">
-        <v>8.818168640136719</v>
+        <v>9.347340643405914</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.334951654076576</v>
+        <v>-0.05590170621871929</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-4.037624061107635</v>
+        <v>-2.789929866790771</v>
       </c>
       <c r="B3" t="n">
-        <v>8.026161462068558</v>
+        <v>9.389312267303467</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.41215243935585</v>
+        <v>-0.0143058076500895</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-3.571272850036621</v>
+        <v>-3.052737355232238</v>
       </c>
       <c r="B4" t="n">
-        <v>6.589316844940186</v>
+        <v>9.127021908760071</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.011023998260498</v>
+        <v>-0.5663906224071975</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-5.014195352792741</v>
+        <v>-3.195896685123444</v>
       </c>
       <c r="B5" t="n">
-        <v>5.515790849924088</v>
+        <v>8.818168640136719</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.485763758420944</v>
+        <v>-1.334951654076576</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-6.389075994491578</v>
+        <v>-4.037624061107635</v>
       </c>
       <c r="B6" t="n">
-        <v>5.315201640129089</v>
+        <v>8.026161462068558</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.994861543178557</v>
+        <v>-2.41215243935585</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-4.530004173517225</v>
+        <v>-3.571272850036621</v>
       </c>
       <c r="B7" t="n">
-        <v>6.061075717210771</v>
+        <v>6.589316844940186</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.65171818435192</v>
+        <v>-3.011023998260498</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-4.840012192726136</v>
+        <v>-5.014195352792741</v>
       </c>
       <c r="B8" t="n">
-        <v>7.050750851631165</v>
+        <v>5.515790849924088</v>
       </c>
       <c r="C8" t="n">
-        <v>2.538701653480534</v>
+        <v>-4.485763758420944</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>39.4459085166455</v>
+        <v>-6.389075994491578</v>
       </c>
       <c r="B9" t="n">
-        <v>14.87950980663301</v>
+        <v>5.315201640129089</v>
       </c>
       <c r="C9" t="n">
-        <v>20.98658950626853</v>
+        <v>-2.994861543178557</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>20.97534060478203</v>
+        <v>-4.530004173517225</v>
       </c>
       <c r="B10" t="n">
-        <v>11.63514316082</v>
+        <v>6.061075717210771</v>
       </c>
       <c r="C10" t="n">
-        <v>12.98352101445195</v>
+        <v>-1.65171818435192</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.842506676912319</v>
+        <v>-4.840012192726136</v>
       </c>
       <c r="B11" t="n">
-        <v>6.827371656894682</v>
+        <v>7.050750851631165</v>
       </c>
       <c r="C11" t="n">
-        <v>4.018280878663065</v>
+        <v>2.538701653480534</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.506411552429201</v>
+        <v>39.4459085166455</v>
       </c>
       <c r="B12" t="n">
-        <v>6.245316505432129</v>
+        <v>14.87950980663301</v>
       </c>
       <c r="C12" t="n">
-        <v>3.238075017929073</v>
+        <v>20.98658950626853</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6.049000829458237</v>
+        <v>20.97534060478203</v>
       </c>
       <c r="B13" t="n">
-        <v>7.41145807504654</v>
+        <v>11.63514316082</v>
       </c>
       <c r="C13" t="n">
-        <v>3.085425972938538</v>
+        <v>12.98352101445195</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5.151385545730594</v>
+        <v>1.842506676912319</v>
       </c>
       <c r="B14" t="n">
-        <v>9.354082107543944</v>
+        <v>6.827371656894682</v>
       </c>
       <c r="C14" t="n">
-        <v>3.488138377666476</v>
+        <v>4.018280878663065</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.843811631202696</v>
+        <v>5.506411552429201</v>
       </c>
       <c r="B15" t="n">
-        <v>9.246257454156877</v>
+        <v>6.245316505432129</v>
       </c>
       <c r="C15" t="n">
-        <v>2.557389497756956</v>
+        <v>3.238075017929073</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4.352240324020387</v>
+        <v>6.049000829458237</v>
       </c>
       <c r="B16" t="n">
-        <v>7.618153929710387</v>
+        <v>7.41145807504654</v>
       </c>
       <c r="C16" t="n">
-        <v>3.785528540611267</v>
+        <v>3.085425972938538</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.598823010921479</v>
+        <v>5.151385545730594</v>
       </c>
       <c r="B17" t="n">
-        <v>8.679397195577621</v>
+        <v>9.354082107543944</v>
       </c>
       <c r="C17" t="n">
-        <v>3.499203532934189</v>
+        <v>3.488138377666476</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.266197681427002</v>
+        <v>3.843811631202696</v>
       </c>
       <c r="B18" t="n">
-        <v>7.760588467121124</v>
+        <v>9.246257454156877</v>
       </c>
       <c r="C18" t="n">
-        <v>3.241497814655304</v>
+        <v>2.557389497756956</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3.850670516490936</v>
+        <v>4.352240324020387</v>
       </c>
       <c r="B19" t="n">
-        <v>7.733274400234222</v>
+        <v>7.618153929710387</v>
       </c>
       <c r="C19" t="n">
-        <v>3.111168667674065</v>
+        <v>3.785528540611267</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.987408638000488</v>
+        <v>3.598823010921479</v>
       </c>
       <c r="B20" t="n">
-        <v>8.183197975158691</v>
+        <v>8.679397195577621</v>
       </c>
       <c r="C20" t="n">
-        <v>3.346771001815796</v>
+        <v>3.499203532934189</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3.266197681427002</v>
+      </c>
+      <c r="B21" t="n">
+        <v>7.760588467121124</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.241497814655304</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_17-59-45/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-59-45/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2.669419974088668</v>
+        <v>-1.931140422821045</v>
       </c>
       <c r="B2" t="n">
-        <v>9.347340643405914</v>
+        <v>9.274446487426758</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.05590170621871929</v>
+        <v>0.347445011138916</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-2.789929866790771</v>
+        <v>-2.475548833608627</v>
       </c>
       <c r="B3" t="n">
-        <v>9.389312267303467</v>
+        <v>9.384642362594603</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0143058076500895</v>
+        <v>0.7847917079925537</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-3.052737355232238</v>
+        <v>-2.621871948242188</v>
       </c>
       <c r="B4" t="n">
-        <v>9.127021908760071</v>
+        <v>9.314098954200743</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.5663906224071975</v>
+        <v>1.41282993555069</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-3.195896685123444</v>
+        <v>-2.868601083755493</v>
       </c>
       <c r="B5" t="n">
-        <v>8.818168640136719</v>
+        <v>9.443870902061462</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.334951654076576</v>
+        <v>0.9555243626236917</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-4.037624061107635</v>
+        <v>-2.620113015174865</v>
       </c>
       <c r="B6" t="n">
-        <v>8.026161462068558</v>
+        <v>9.546792268753052</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.41215243935585</v>
+        <v>0.6990440487861633</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-3.571272850036621</v>
+        <v>-2.44504114985466</v>
       </c>
       <c r="B7" t="n">
-        <v>6.589316844940186</v>
+        <v>9.541788041591644</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.011023998260498</v>
+        <v>0.372002582065761</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-5.014195352792741</v>
+        <v>-2.28140389919281</v>
       </c>
       <c r="B8" t="n">
-        <v>5.515790849924088</v>
+        <v>9.524857640266418</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.485763758420944</v>
+        <v>-0.01871592737734312</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-6.389075994491578</v>
+        <v>-2.462455779314041</v>
       </c>
       <c r="B9" t="n">
-        <v>5.315201640129089</v>
+        <v>9.538427114486694</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.994861543178557</v>
+        <v>-0.03734804317355161</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-4.530004173517225</v>
+        <v>-2.66546654701233</v>
       </c>
       <c r="B10" t="n">
-        <v>6.061075717210771</v>
+        <v>9.521270275115967</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.65171818435192</v>
+        <v>0.1833332777023315</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-4.840012192726136</v>
+        <v>-2.735388696193695</v>
       </c>
       <c r="B11" t="n">
-        <v>7.050750851631165</v>
+        <v>9.501047194004059</v>
       </c>
       <c r="C11" t="n">
-        <v>2.538701653480534</v>
+        <v>0.2642159881070256</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>39.4459085166455</v>
+        <v>-2.759680032730102</v>
       </c>
       <c r="B12" t="n">
-        <v>14.87950980663301</v>
+        <v>9.431608200073242</v>
       </c>
       <c r="C12" t="n">
-        <v>20.98658950626853</v>
+        <v>0.08809284307062609</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>20.97534060478203</v>
+        <v>-2.669419974088668</v>
       </c>
       <c r="B13" t="n">
-        <v>11.63514316082</v>
+        <v>9.347340643405914</v>
       </c>
       <c r="C13" t="n">
-        <v>12.98352101445195</v>
+        <v>-0.05590170621871929</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.842506676912319</v>
+        <v>-2.789929866790771</v>
       </c>
       <c r="B14" t="n">
-        <v>6.827371656894682</v>
+        <v>9.389312267303467</v>
       </c>
       <c r="C14" t="n">
-        <v>4.018280878663065</v>
+        <v>-0.0143058076500895</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.506411552429201</v>
+        <v>-3.052737355232238</v>
       </c>
       <c r="B15" t="n">
-        <v>6.245316505432129</v>
+        <v>9.127021908760071</v>
       </c>
       <c r="C15" t="n">
-        <v>3.238075017929073</v>
+        <v>-0.5663906224071975</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6.049000829458237</v>
+        <v>-3.195896685123444</v>
       </c>
       <c r="B16" t="n">
-        <v>7.41145807504654</v>
+        <v>8.818168640136719</v>
       </c>
       <c r="C16" t="n">
-        <v>3.085425972938538</v>
+        <v>-1.334951654076576</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.151385545730594</v>
+        <v>-4.037624061107635</v>
       </c>
       <c r="B17" t="n">
-        <v>9.354082107543944</v>
+        <v>8.026161462068558</v>
       </c>
       <c r="C17" t="n">
-        <v>3.488138377666476</v>
+        <v>-2.41215243935585</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.843811631202696</v>
+        <v>-3.571272850036621</v>
       </c>
       <c r="B18" t="n">
-        <v>9.246257454156877</v>
+        <v>6.589316844940186</v>
       </c>
       <c r="C18" t="n">
-        <v>2.557389497756956</v>
+        <v>-3.011023998260498</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4.352240324020387</v>
+        <v>-5.014195352792741</v>
       </c>
       <c r="B19" t="n">
-        <v>7.618153929710387</v>
+        <v>5.515790849924088</v>
       </c>
       <c r="C19" t="n">
-        <v>3.785528540611267</v>
+        <v>-4.485763758420944</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.598823010921479</v>
+        <v>-6.389075994491578</v>
       </c>
       <c r="B20" t="n">
-        <v>8.679397195577621</v>
+        <v>5.315201640129089</v>
       </c>
       <c r="C20" t="n">
-        <v>3.499203532934189</v>
+        <v>-2.994861543178557</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3.266197681427002</v>
+        <v>-4.530004173517225</v>
       </c>
       <c r="B21" t="n">
-        <v>7.760588467121124</v>
+        <v>6.061075717210771</v>
       </c>
       <c r="C21" t="n">
-        <v>3.241497814655304</v>
+        <v>-1.65171818435192</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-4.840012192726136</v>
+      </c>
+      <c r="B22" t="n">
+        <v>7.050750851631165</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.538701653480534</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>39.4459085166455</v>
+      </c>
+      <c r="B23" t="n">
+        <v>14.87950980663301</v>
+      </c>
+      <c r="C23" t="n">
+        <v>20.98658950626853</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>20.97534060478203</v>
+      </c>
+      <c r="B24" t="n">
+        <v>11.63514316082</v>
+      </c>
+      <c r="C24" t="n">
+        <v>12.98352101445195</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1.842506676912319</v>
+      </c>
+      <c r="B25" t="n">
+        <v>6.827371656894682</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.018280878663065</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5.506411552429201</v>
+      </c>
+      <c r="B26" t="n">
+        <v>6.245316505432129</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.238075017929073</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>6.049000829458237</v>
+      </c>
+      <c r="B27" t="n">
+        <v>7.41145807504654</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.085425972938538</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5.151385545730594</v>
+      </c>
+      <c r="B28" t="n">
+        <v>9.354082107543944</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.488138377666476</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3.843811631202696</v>
+      </c>
+      <c r="B29" t="n">
+        <v>9.246257454156877</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2.557389497756956</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>4.352240324020387</v>
+      </c>
+      <c r="B30" t="n">
+        <v>7.618153929710387</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3.785528540611267</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3.598823010921479</v>
+      </c>
+      <c r="B31" t="n">
+        <v>8.679397195577621</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3.499203532934189</v>
       </c>
     </row>
   </sheetData>
